--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="1"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DataPacket" sheetId="2" r:id="rId1"/>
-    <sheet name="握手" sheetId="3" r:id="rId2"/>
+    <sheet name="Hello" sheetId="3" r:id="rId2"/>
+    <sheet name="反向代理" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>16位源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1byte 可变长地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1byte 可变长端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x02 FLAG（Hello-Success）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +105,70 @@
   </si>
   <si>
     <t>0x03 FLAG（Hello-Success）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向代理服务端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RProxyPacket_includeL3Addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三层地址 类型可变（IPv4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1byte 可变长目标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1byte 可变长源地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1byte 可变长目标端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1byte 可变长原端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向代理服务端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RProxyPacket_TCP_Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00 TCP_Connect FLAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,59 +319,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +703,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="A3:P3"/>
+      <selection activeCell="Q4" sqref="Q4:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,213 +714,66 @@
     <col min="1" max="32" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="5"/>
-    </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="3"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="7"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q1:AF1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:AF2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:P3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:P16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="32" width="6.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="5"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -864,362 +792,925 @@
       <c r="AF3" s="5"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:AF5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q2:AF2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AF4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="32" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="3"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="12"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="5"/>
-    </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="5"/>
-    </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="12"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="5"/>
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="5"/>
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="12"/>
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="5"/>
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="3"/>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="5"/>
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q2:AF2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="Q10:AF10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="Q19:AF19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="Q20:AF20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="I21:P21"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="Q10:AF10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="32" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="3"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="5"/>
+    </row>
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="3"/>
+    </row>
+    <row r="61" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="5"/>
+    </row>
+    <row r="62" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="21"/>
+    </row>
+    <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="18"/>
+    </row>
+    <row r="64" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="I5:X5"/>
+    <mergeCell ref="A63:AF63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="Q61:AF61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:P62"/>
+    <mergeCell ref="Q62:X62"/>
+    <mergeCell ref="Y62:AF62"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="Q60:AF60"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q2:AF2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="Q3:AF3"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="Y4:AF4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="DataPacket" sheetId="2" r:id="rId1"/>
     <sheet name="Hello" sheetId="3" r:id="rId2"/>
-    <sheet name="反向代理" sheetId="5" r:id="rId3"/>
+    <sheet name="RProxyPacket" sheetId="5" r:id="rId3"/>
     <sheet name="正向代理（x）" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
   <si>
     <t>16位源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,14 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x02 TCP_Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01 TCP_Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x01 Hello-ACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,15 +189,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RProxyPacket_TCP_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RProxyPacket_TCP_Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00 TCP_Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01 TCP_Connect_Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02 TCP_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03 TCP_Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04 TCP_Rst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect_Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Rst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +892,7 @@
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -928,7 +948,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1039,7 @@
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1122,7 +1142,7 @@
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1225,7 +1245,7 @@
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1328,7 +1348,7 @@
     </row>
     <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1386,7 +1406,7 @@
   <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A9" sqref="A9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1396,7 +1416,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1519,7 +1539,7 @@
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1531,7 +1551,7 @@
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1654,7 +1674,7 @@
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1684,7 +1704,7 @@
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1807,7 +1827,7 @@
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -1835,7 +1855,7 @@
       <c r="W17" s="20"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -1844,6 +1864,312 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="3"/>
+    </row>
+    <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="6"/>
+    </row>
+    <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="6"/>
+    </row>
+    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="12"/>
+    </row>
+    <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21"/>
+    </row>
+    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="6"/>
+    </row>
+    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="6"/>
+    </row>
+    <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="12"/>
+    </row>
+    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="21"/>
     </row>
     <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -2025,7 +2351,24 @@
       <c r="P64" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="60">
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:AF27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="I11:X11"/>
     <mergeCell ref="Q9:AF9"/>
@@ -2058,6 +2401,9 @@
     <mergeCell ref="Y62:AF62"/>
     <mergeCell ref="A60:P60"/>
     <mergeCell ref="Q60:AF60"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:P21"/>
     <mergeCell ref="A14:P14"/>
     <mergeCell ref="Q14:AF14"/>
     <mergeCell ref="A15:P15"/>

--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -197,35 +197,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0x03 TCP_Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04 TCP_Rst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Rst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect_Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0x02 TCP_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x03 TCP_Fin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x04 TCP_Rst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP_Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connect_Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP_Fin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP_Rst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +763,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AF5"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:P9"/>
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1416,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
     </row>
     <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>

--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DataPacket" sheetId="2" r:id="rId1"/>
     <sheet name="Hello" sheetId="3" r:id="rId2"/>
-    <sheet name="RProxyPacket" sheetId="5" r:id="rId3"/>
-    <sheet name="正向代理（x）" sheetId="6" r:id="rId4"/>
+    <sheet name="ProxyPacket" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>16位源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,26 +141,6 @@
   </si>
   <si>
     <t>源端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RProxyPacket_TCP_Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00 TCP_Connect FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP Port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01 TCP_Connect FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RProxyPacket_TCP_Connect_Success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -892,7 +871,7 @@
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1039,7 +1018,7 @@
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1142,7 +1121,7 @@
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1245,7 +1224,7 @@
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1348,7 +1327,7 @@
     </row>
     <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1370,30 +1349,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q2:AF2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="Q10:AF10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="Q19:AF19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="Q20:AF20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="I21:P21"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="Q10:AF10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:AF2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q3:AF3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="I4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1405,9 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1416,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1539,7 +1516,7 @@
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1551,7 +1528,7 @@
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1674,7 +1651,7 @@
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1704,7 +1681,7 @@
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1827,7 +1804,7 @@
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -1855,7 +1832,7 @@
       <c r="W17" s="20"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -1867,7 +1844,7 @@
     </row>
     <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1990,7 +1967,7 @@
     </row>
     <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2020,7 +1997,7 @@
     </row>
     <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2143,7 +2120,7 @@
     </row>
     <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -2352,42 +2329,14 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:X29"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="Q27:AF27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="Q26:AF26"/>
-    <mergeCell ref="Q21:AF21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:X11"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Q8:AF8"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:AF2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q3:AF3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="Q4:X4"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="I17:X17"/>
     <mergeCell ref="Y17:AF17"/>
@@ -2404,562 +2353,42 @@
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="Q20:AF20"/>
     <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="32" width="6.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="6"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
-    </row>
-    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="6"/>
-    </row>
-    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="6"/>
-    </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="12"/>
-    </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="21"/>
-    </row>
-    <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="6"/>
-    </row>
-    <row r="61" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="8"/>
-    </row>
-    <row r="62" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z62" s="20"/>
-      <c r="AA62" s="20"/>
-      <c r="AB62" s="20"/>
-      <c r="AC62" s="20"/>
-      <c r="AD62" s="20"/>
-      <c r="AE62" s="20"/>
-      <c r="AF62" s="21"/>
-    </row>
-    <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="3"/>
-    </row>
-    <row r="64" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="Q8:AF8"/>
+    <mergeCell ref="A9:P9"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q2:AF2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="Q3:AF3"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="I4:P4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:X5"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Q8:AF8"/>
-    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:X11"/>
     <mergeCell ref="Q9:AF9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:P10"/>
     <mergeCell ref="Q10:X10"/>
     <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="A63:AF63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="Q60:AF60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="Q61:AF61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="I62:P62"/>
-    <mergeCell ref="Q62:X62"/>
-    <mergeCell ref="Y62:AF62"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:AF27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -1384,7 +1384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:X29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="12090" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DataPacket" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>16位源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Connect_Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TCP_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +201,26 @@
   </si>
   <si>
     <t>0x02 TCP_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地址(IPv4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标端口(TCP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地址(IPv4)：全0代表对方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Connect_Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端源地址 和 Session ID 为一对。在 SessionTable 中成对匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +758,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="Q4" sqref="Q4:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1349,30 +1365,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="Q19:AF19"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="Q10:AF10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q2:AF2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="Q3:AF3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="Q10:AF10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="Q19:AF19"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="Q20:AF20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I21:P21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1385,7 +1401,7 @@
   <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:X29"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1527,10 +1543,50 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
+      <c r="I5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="21"/>
+    </row>
+    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1683,7 +1739,7 @@
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1862,7 @@
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -1846,7 +1902,7 @@
     </row>
     <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2149,6 +2205,16 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
       <c r="X29" s="21"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -2330,15 +2396,46 @@
       <c r="P64" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
+  <mergeCells count="63">
+    <mergeCell ref="I5:X5"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:AF27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:X11"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="Q8:AF8"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q2:AF2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="Y5:AF5"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="I17:X17"/>
     <mergeCell ref="Y17:AF17"/>
@@ -2355,42 +2452,14 @@
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="Q20:AF20"/>
     <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Q8:AF8"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:AF2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q3:AF3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="Q4:X4"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:X11"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="Q26:AF26"/>
-    <mergeCell ref="Q21:AF21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:X29"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="Q27:AF27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DataPacket" sheetId="2" r:id="rId1"/>
     <sheet name="Hello" sheetId="3" r:id="rId2"/>
-    <sheet name="ProxyPacket" sheetId="5" r:id="rId3"/>
+    <sheet name="ProxyPacket" sheetId="6" r:id="rId3"/>
+    <sheet name="ProxyPacket(x)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
   <si>
     <t>16位源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,23 +205,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>目标端口(TCP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标地址(IPv4)：全0代表对方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP_Connect_Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端源地址 和 Session ID 为一对。在 SessionTable 中成对匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>目标地址(IPv4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标端口(TCP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标地址(IPv4)：全0代表对方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP_Connect_Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端源地址 和 Session ID 为一对。在 SessionTable 中成对匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,30 +1366,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q2:AF2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="Q10:AF10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="Q19:AF19"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="Q20:AF20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="I21:P21"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="Q10:AF10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:AF2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q3:AF3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="I4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1401,7 +1402,7 @@
   <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="I5" sqref="I5:X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1513,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -1561,32 +1562,10 @@
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
       <c r="X5" s="20"/>
-      <c r="Y5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="21"/>
-    </row>
-    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1687,7 +1666,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2208,12 +2187,12 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2396,7 +2375,1123 @@
       <c r="P64" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="A63:AF63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="Q60:AF60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="Q61:AF61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:P62"/>
+    <mergeCell ref="Q62:X62"/>
+    <mergeCell ref="Y62:AF62"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:AF27"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:X11"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:X5"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="Q8:AF8"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q2:AF2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AF4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5:AF5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="32" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="6"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+    </row>
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="12"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="21"/>
+    </row>
+    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="6"/>
+    </row>
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="12"/>
+    </row>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="6"/>
+    </row>
+    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="6"/>
+    </row>
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="12"/>
+    </row>
+    <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="3"/>
+    </row>
+    <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="6"/>
+    </row>
+    <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="6"/>
+    </row>
+    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="12"/>
+    </row>
+    <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21"/>
+    </row>
+    <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="6"/>
+    </row>
+    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="6"/>
+    </row>
+    <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="12"/>
+    </row>
+    <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="21"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="6"/>
+    </row>
+    <row r="61" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="8"/>
+    </row>
+    <row r="62" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="21"/>
+    </row>
+    <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="3"/>
+    </row>
+    <row r="64" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="21"/>
+    </row>
+  </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="Q60:AF60"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A63:AF63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="Q61:AF61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:P62"/>
+    <mergeCell ref="Q62:X62"/>
+    <mergeCell ref="Y62:AF62"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="Q8:AF8"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q2:AF2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="Y5:AF5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:X11"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
     <mergeCell ref="I5:X5"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="I29:X29"/>
@@ -2413,53 +3508,6 @@
     <mergeCell ref="Q21:AF21"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:X11"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="Q8:AF8"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:AF2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q3:AF3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="Q4:X4"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="Y5:AF5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="A63:AF63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="Q61:AF61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="I62:P62"/>
-    <mergeCell ref="Q62:X62"/>
-    <mergeCell ref="Y62:AF62"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="Q60:AF60"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="Q20:AF20"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WEIHU\Source\Repos\YTMVPN_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Repos\YTMVPN_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="DataPacket" sheetId="2" r:id="rId1"/>
-    <sheet name="Hello" sheetId="3" r:id="rId2"/>
-    <sheet name="ProxyPacket" sheetId="6" r:id="rId3"/>
-    <sheet name="ProxyPacket(x)" sheetId="5" r:id="rId4"/>
+    <sheet name="说明1" sheetId="7" r:id="rId1"/>
+    <sheet name="说明2" sheetId="8" r:id="rId2"/>
+    <sheet name="DataPacket" sheetId="2" r:id="rId3"/>
+    <sheet name="Hello" sheetId="3" r:id="rId4"/>
+    <sheet name="ProxyPacket" sheetId="6" r:id="rId5"/>
+    <sheet name="ProxyPacket(x)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="51">
   <si>
     <t>16位源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +224,14 @@
   </si>
   <si>
     <t>目标地址(IPv4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一般情况的VPN的数据载荷，可以被虚拟网络路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色是UDP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,6 +464,547 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="123825"/>
+          <a:ext cx="9610725" cy="6315075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>想要实现的功能很多，但是现在还是要侧重于基础部分。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>性能优化和其他功能暂时不考虑</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>要实现的基础部分：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>路由功能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>入口被动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Socket</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>（客户端预配置）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>出口主动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Socket</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>（服务端预配置）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>可变长地址和端口的支持（初期地址写死</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1Byte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，端口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1Byte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>暂时就这样</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>其次考虑的实现：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>多客户端支持</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>参数处理（便于调试和使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>后期考虑的实现：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	P2P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>的支持</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>加密</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	NAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>穿透</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>后期扩展功能的实现：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>快速可靠传输</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>协议混淆</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>集成服务（代理，转发，文件共享，邮件，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>IRC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>等）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>原理：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>客户端程序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Socket -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>入口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Socket</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>（客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>localhost</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> -&gt; VPN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>封装与路由处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>出口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Socket</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>（服务端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>localhost</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>） </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>服务端程序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Socket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>注意 这个程序被作为个人或者小型组织</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>VPN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>组网用途，而不是代理用途</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266699" y="438150"/>
+          <a:ext cx="11534775" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关于可变长地址和端口：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>去掉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>协议，节省地址和端口长度，去掉一些不需要的字段。去掉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>会带了一些兼容问题和不便，个人认为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UDP/TCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在一些环境下包含了一些不需要的字段。虽然不清楚这么节省是否可以带来有效的性能提升，但是我觉得这个对于我来说尝试是值得的。为了兼顾主流程序，只好做成这种代理隧道的方式。同时会给一些程序带来假象，比如到服务端的延迟或者认为发送的数据已经被</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ACK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,13 +1304,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:X4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,7 +1350,11 @@
     <col min="1" max="32" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
@@ -922,6 +1509,11 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="3"/>
     </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A5:AF5"/>
@@ -939,12 +1531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1366,30 +1958,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="Q19:AF19"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="Q10:AF10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q2:AF2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="Q3:AF3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="Q10:AF10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="Q19:AF19"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="Q20:AF20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I21:P21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1397,11 +1989,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5:X5"/>
     </sheetView>
   </sheetViews>
@@ -2376,55 +2968,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A63:AF63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="Q60:AF60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="Q61:AF61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="I62:P62"/>
-    <mergeCell ref="Q62:X62"/>
-    <mergeCell ref="Y62:AF62"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:X29"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="Q26:AF26"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="Q27:AF27"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="Q20:AF20"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="Q21:AF21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:X11"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="Y10:AF10"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I5:X5"/>
     <mergeCell ref="A8:P8"/>
@@ -2437,6 +2980,55 @@
     <mergeCell ref="I4:P4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:X11"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:AF27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="A63:AF63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="Q60:AF60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="Q61:AF61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:P62"/>
+    <mergeCell ref="Q62:X62"/>
+    <mergeCell ref="Y62:AF62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2444,7 +3036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF64"/>
   <sheetViews>
@@ -3445,23 +4037,31 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="Q60:AF60"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="Q20:AF20"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A63:AF63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="Q61:AF61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="I62:P62"/>
-    <mergeCell ref="Q62:X62"/>
-    <mergeCell ref="Y62:AF62"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:AF27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="I5:X5"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:X11"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A8:P8"/>
     <mergeCell ref="Q8:AF8"/>
@@ -3476,38 +4076,30 @@
     <mergeCell ref="I4:P4"/>
     <mergeCell ref="Y5:AF5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A63:AF63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="Q61:AF61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:P62"/>
+    <mergeCell ref="Q62:X62"/>
+    <mergeCell ref="Y62:AF62"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="Q60:AF60"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:P21"/>
     <mergeCell ref="Q22:X22"/>
     <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:X11"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="Y10:AF10"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="I17:X17"/>
     <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="I5:X5"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="I29:X29"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="Q27:AF27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="Q26:AF26"/>
-    <mergeCell ref="Q21:AF21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YTMVPN协议草稿.xlsx
+++ b/YTMVPN协议草稿.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Repos\YTMVPN_Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcee\Desktop\git\YTMVPN_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="3"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="27870" windowHeight="12705" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="说明1" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
   <si>
     <t>16位源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,22 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello-Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务端逻辑地址（变长）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello-ACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端逻辑地址（变长）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello-Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反向代理服务端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +216,34 @@
   </si>
   <si>
     <t>绿色是UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>握手前，双方不知道对方的虚拟网络地址，用第一个字节代表这个包的类型，后面紧跟本机ip。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里写的是VPN的握手包结构和顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello-Done（服务端 表示服务端已经准备就绪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello（Client 请求握手 并附上自己的虚拟网络地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello-ACK（Server 接受握手 并附上自己的虚拟网络地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello-Success（Clinet 表示客户端已经准备就绪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello-Success和Hello-Done的第二字节可以先不做处理，保留。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,15 +614,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>可变长地址和端口的支持（初期地址写死</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>1Byte</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>，端口</a:t>
+            <a:t>可变长地址和端口的支持（初期图方便可以写死</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -991,6 +995,17 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>因为可变长的缘故，客户端和服务端需要提前设置好同样的地址和端口长度。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -1352,7 +1367,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1448,7 @@
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1443,7 +1458,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
       <c r="I4" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1453,7 +1468,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -1463,7 +1478,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
@@ -1475,7 +1490,7 @@
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1511,7 +1526,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1544,52 +1559,19 @@
     <col min="1" max="32" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="6"/>
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1598,16 +1580,16 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -1626,73 +1608,73 @@
       <c r="AF3" s="6"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-    </row>
-    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="6"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="6"/>
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1701,16 +1683,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
       <c r="Q10" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -1729,73 +1711,73 @@
       <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="6"/>
+    </row>
+    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="6"/>
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1804,16 +1786,16 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -1832,73 +1814,73 @@
       <c r="AF15" s="6"/>
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
-    </row>
-    <row r="18" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="6"/>
+    </row>
+    <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="6"/>
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1907,16 +1889,16 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -1935,53 +1917,101 @@
       <c r="AF20" s="6"/>
     </row>
     <row r="21" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="18"/>
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="6"/>
+    </row>
+    <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="Q19:AF19"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="Q4:AF4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="Q10:AF10"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="Q11:AF11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="Q16:AF16"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="A17:H17"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="Q20:AF20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="Q10:AF10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:AF2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q3:AF3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1993,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5:X5"/>
     </sheetView>
   </sheetViews>
@@ -2004,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2085,7 +2115,7 @@
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2095,7 +2125,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
       <c r="I4" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -2105,7 +2135,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2115,7 +2145,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
@@ -2127,7 +2157,7 @@
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2137,7 +2167,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
       <c r="I5" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
@@ -2157,7 +2187,7 @@
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2238,7 +2268,7 @@
     </row>
     <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2248,7 +2278,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -2258,7 +2288,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2268,7 +2298,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
@@ -2280,7 +2310,7 @@
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -2290,7 +2320,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
       <c r="I11" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -2310,7 +2340,7 @@
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2391,7 +2421,7 @@
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2401,7 +2431,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
       <c r="I16" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -2411,7 +2441,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -2421,7 +2451,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -2433,7 +2463,7 @@
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2443,7 +2473,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
       <c r="I17" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
@@ -2461,7 +2491,7 @@
       <c r="W17" s="20"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -2473,7 +2503,7 @@
     </row>
     <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2554,7 +2584,7 @@
     </row>
     <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2564,7 +2594,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -2574,7 +2604,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -2584,7 +2614,7 @@
       <c r="W22" s="11"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
@@ -2596,7 +2626,7 @@
     </row>
     <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2606,7 +2636,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
       <c r="I23" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -2626,7 +2656,7 @@
     </row>
     <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2707,7 +2737,7 @@
     </row>
     <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2717,7 +2747,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
       <c r="I28" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -2727,7 +2757,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -2737,7 +2767,7 @@
       <c r="W28" s="11"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
@@ -2749,7 +2779,7 @@
     </row>
     <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -2759,7 +2789,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="21"/>
       <c r="I29" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
@@ -2779,17 +2809,17 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2870,7 +2900,7 @@
     </row>
     <row r="62" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2880,7 +2910,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
       <c r="I62" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -2890,7 +2920,7 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
@@ -2900,7 +2930,7 @@
       <c r="W62" s="20"/>
       <c r="X62" s="21"/>
       <c r="Y62" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
@@ -2912,7 +2942,7 @@
     </row>
     <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2948,7 +2978,7 @@
     </row>
     <row r="64" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -2968,6 +2998,55 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A63:AF63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="Q60:AF60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="Q61:AF61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:P62"/>
+    <mergeCell ref="Q62:X62"/>
+    <mergeCell ref="Y62:AF62"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:AF27"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:X11"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="Q14:AF14"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="Q15:AF15"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="Q9:AF9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="Y10:AF10"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I5:X5"/>
     <mergeCell ref="A8:P8"/>
@@ -2980,55 +3059,6 @@
     <mergeCell ref="I4:P4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="A9:P9"/>
-    <mergeCell ref="Q9:AF9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:X11"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="Q14:AF14"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="Q15:AF15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="Q20:AF20"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="Q21:AF21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="Q26:AF26"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="Q27:AF27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:X29"/>
-    <mergeCell ref="A63:AF63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="Q60:AF60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="Q61:AF61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="I62:P62"/>
-    <mergeCell ref="Q62:X62"/>
-    <mergeCell ref="Y62:AF62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3051,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3132,7 +3162,7 @@
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3142,7 +3172,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
       <c r="I4" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -3152,7 +3182,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -3162,7 +3192,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
@@ -3174,7 +3204,7 @@
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -3184,7 +3214,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
       <c r="I5" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
@@ -3202,7 +3232,7 @@
       <c r="W5" s="20"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
@@ -3214,7 +3244,7 @@
     </row>
     <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -3226,7 +3256,7 @@
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3307,7 +3337,7 @@
     </row>
     <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3317,7 +3347,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -3327,7 +3357,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -3337,7 +3367,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
@@ -3349,7 +3379,7 @@
     </row>
     <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3359,7 +3389,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
       <c r="I11" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -3379,7 +3409,7 @@
     </row>
     <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3460,7 +3490,7 @@
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -3470,7 +3500,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
       <c r="I16" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -3480,7 +3510,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -3490,7 +3520,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -3502,7 +3532,7 @@
     </row>
     <row r="17" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3512,7 +3542,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
       <c r="I17" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
@@ -3530,7 +3560,7 @@
       <c r="W17" s="20"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -3542,7 +3572,7 @@
     </row>
     <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3623,7 +3653,7 @@
     </row>
     <row r="22" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3633,7 +3663,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -3643,7 +3673,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -3653,7 +3683,7 @@
       <c r="W22" s="11"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
@@ -3665,7 +3695,7 @@
     </row>
     <row r="23" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -3675,7 +3705,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
       <c r="I23" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -3695,7 +3725,7 @@
     </row>
     <row r="25" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3776,7 +3806,7 @@
     </row>
     <row r="28" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3786,7 +3816,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
       <c r="I28" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -3796,7 +3826,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -3806,7 +3836,7 @@
       <c r="W28" s="11"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
@@ -3818,7 +3848,7 @@
     </row>
     <row r="29" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3828,7 +3858,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="21"/>
       <c r="I29" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
@@ -3848,17 +3878,17 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3939,7 +3969,7 @@
     </row>
     <row r="62" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -3949,7 +3979,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
       <c r="I62" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -3959,7 +3989,7 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
@@ -3969,7 +3999,7 @@
       <c r="W62" s="20"/>
       <c r="X62" s="21"/>
       <c r="Y62" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
@@ -3981,7 +4011,7 @@
     </row>
     <row r="63" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4017,7 +4047,7 @@
     </row>
     <row r="64" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -4037,19 +4067,40 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="Q26:AF26"/>
-    <mergeCell ref="Q21:AF21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="Q27:AF27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="Q20:AF20"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="Y5:AF5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A63:AF63"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="Q61:AF61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:P62"/>
+    <mergeCell ref="Q62:X62"/>
+    <mergeCell ref="Y62:AF62"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="Q60:AF60"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q2:AF2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="Q3:AF3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="Y4:AF4"/>
+    <mergeCell ref="I4:P4"/>
     <mergeCell ref="A14:P14"/>
     <mergeCell ref="Q14:AF14"/>
     <mergeCell ref="A15:P15"/>
@@ -4066,40 +4117,19 @@
     <mergeCell ref="A8:P8"/>
     <mergeCell ref="Q8:AF8"/>
     <mergeCell ref="A9:P9"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q2:AF2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="Q3:AF3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="Q4:X4"/>
-    <mergeCell ref="Y4:AF4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="Y5:AF5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A63:AF63"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="Q61:AF61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="I62:P62"/>
-    <mergeCell ref="Q62:X62"/>
-    <mergeCell ref="Y62:AF62"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="Q60:AF60"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="Q20:AF20"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="Q22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:AF27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="Q26:AF26"/>
+    <mergeCell ref="Q21:AF21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
